--- a/xlsx/海地_intext.xlsx
+++ b/xlsx/海地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>海地</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>海地國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_海地</t>
+    <t>海地国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9B%BD%E5%BE%BD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E3%80%81%E5%B9%B3%E7%AD%89%E3%80%81%E5%8D%9A%E6%84%9B</t>
   </si>
   <si>
-    <t>自由、平等、博愛</t>
+    <t>自由、平等、博爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%90%A8%E5%88%A9%E7%BA%B3%E4%B9%8B%E6%AD%8C</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>海地克里奧爾語</t>
+    <t>海地克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%BA%86%E6%97%A5</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -221,31 +221,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
+    <t>半总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E6%80%BB%E7%BB%9F</t>
@@ -257,37 +257,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%A4%AB%E5%85%A7%E7%88%BE%C2%B7%E8%8E%AB%E4%BC%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>喬夫內爾·莫伊斯</t>
+    <t>乔夫内尔·莫伊斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>海地總理</t>
+    <t>海地总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E8%80%90%E6%96%AF%C2%B7%E8%AE%93-%E5%A4%8F%E7%88%BE</t>
   </si>
   <si>
-    <t>依耐斯·讓-夏爾</t>
+    <t>依耐斯·让-夏尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%B1%E5%92%8C%E5%9B%BD%E9%93%B6%E8%A1%8C</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.ht</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%9C%8B</t>
   </si>
   <si>
-    <t>島國</t>
+    <t>岛国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%B8%95%E5%B0%BC%E5%A5%A5%E6%8B%89%E5%B2%9B</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲聯盟</t>
+    <t>非洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA</t>
@@ -425,15 +425,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%B8%95%E5%B0%BC%E5%A5%A7%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊斯帕尼奧拉島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BD%A2%E5%AD%97</t>
   </si>
   <si>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>波蘭軍隊</t>
+    <t>波兰军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%8E%86%E5%8F%B2</t>
@@ -491,9 +488,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%A1%91%C2%B7%E5%8D%A2%E7%BB%B4%E5%9B%BE%E5%B0%94</t>
   </si>
   <si>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%81%A3%E7%9C%81</t>
   </si>
   <si>
-    <t>大灣省</t>
+    <t>大湾省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%99%AE%E6%96%AF%E7%9C%81</t>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E7%9C%81_(%E6%B5%B7%E5%9C%B0)</t>
   </si>
   <si>
-    <t>東南省 (海地)</t>
+    <t>东南省 (海地)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E7%9C%81_(%E6%B5%B7%E5%9C%B0)</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B5%B7%E5%9C%B0%E7%A9%A9%E5%AE%9A%E5%8C%96%E4%BB%BB%E5%8B%99%E7%B5%84</t>
   </si>
   <si>
-    <t>聯合國海地穩定化任務組</t>
+    <t>联合国海地稳定化任务组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E6%94%BF%E6%B2%BB</t>
@@ -677,9 +671,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>单一制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%83%A8</t>
   </si>
   <si>
-    <t>經濟部</t>
+    <t>经济部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>國防部</t>
+    <t>国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%83%A8</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%96%8B%E7%99%BC%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美洲開發銀行</t>
+    <t>美洲开发银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
@@ -827,9 +818,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%BD%A9%E8%92%82%E7%BF%81</t>
   </si>
   <si>
@@ -845,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>克林頓</t>
+    <t>克林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%A8%BB</t>
@@ -863,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%BB%8B%E7%97%85</t>
   </si>
   <si>
-    <t>愛滋病</t>
+    <t>爱滋病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%A1%91%C2%B7%E5%8D%A2%E7%BB%B4%E6%9D%9C%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -881,9 +869,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%8B%E9%87%8C%E5%A5%A5%E5%B0%94%E8%AF%AD</t>
   </si>
   <si>
-    <t>海地克里奥尔语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
@@ -971,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -1067,9 +1052,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
   </si>
   <si>
@@ -1085,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1103,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -1121,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1157,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1169,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1181,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1199,25 +1181,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1229,19 +1211,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1259,31 +1241,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1313,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1325,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1337,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1355,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1373,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
@@ -1397,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1427,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -1487,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1517,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -1565,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1583,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
@@ -1631,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
@@ -1655,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -1667,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -1733,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1745,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -1811,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -1829,19 +1811,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E8%92%82%E7%BF%81%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>佩蒂翁維爾</t>
+    <t>佩蒂翁维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8B%92%E5%BC%97</t>
@@ -1859,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%A5%A7%E7%94%98</t>
   </si>
   <si>
-    <t>萊奧甘</t>
+    <t>莱奥甘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%E9%85%92%E5%BA%97</t>
@@ -1883,21 +1865,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%8A%9B%E6%96%AF%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>亞力斯酒店</t>
+    <t>亚力斯酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%AE_(%E6%B5%B7%E5%9C%B0)</t>
   </si>
   <si>
-    <t>國家宮 (海地)</t>
+    <t>国家宫 (海地)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>海地國民議會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%AD%90%E6%B8%AF%E4%B8%BB%E6%95%99%E5%BA%A7%E5%A0%82</t>
   </si>
   <si>
@@ -1931,13 +1910,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E7%91%9F%C2%B7%E7%B9%86%E7%89%B9</t>
   </si>
   <si>
-    <t>若瑟·繆特</t>
+    <t>若瑟·缪特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1955,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1973,13 +1952,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4467,7 +4446,7 @@
         <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4493,10 +4472,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4522,10 +4501,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4551,10 +4530,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4580,10 +4559,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4609,10 +4588,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4638,10 +4617,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4667,10 +4646,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4696,10 +4675,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4725,10 +4704,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4754,10 +4733,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -4783,10 +4762,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4812,10 +4791,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4841,10 +4820,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4870,10 +4849,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4899,10 +4878,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4928,10 +4907,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4957,10 +4936,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4986,10 +4965,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5015,10 +4994,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5044,10 +5023,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5073,10 +5052,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5102,10 +5081,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5131,10 +5110,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5160,10 +5139,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5189,10 +5168,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5218,10 +5197,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5247,10 +5226,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5276,10 +5255,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5305,10 +5284,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5334,10 +5313,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5363,10 +5342,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5392,10 +5371,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5421,10 +5400,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5450,10 +5429,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5479,10 +5458,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5508,10 +5487,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5537,10 +5516,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5566,10 +5545,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5595,10 +5574,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5624,10 +5603,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5653,10 +5632,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5682,10 +5661,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5711,10 +5690,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>9</v>
@@ -5740,10 +5719,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5769,10 +5748,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5798,10 +5777,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5827,10 +5806,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5856,10 +5835,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5885,10 +5864,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5914,10 +5893,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5943,10 +5922,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5972,10 +5951,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6001,10 +5980,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6030,10 +6009,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6059,10 +6038,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6088,10 +6067,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6117,10 +6096,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6146,10 +6125,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6175,10 +6154,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -6204,10 +6183,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6233,10 +6212,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6262,10 +6241,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6291,10 +6270,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6320,10 +6299,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6349,10 +6328,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6378,10 +6357,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6436,10 +6415,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6465,10 +6444,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6494,10 +6473,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6523,10 +6502,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6552,10 +6531,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6581,10 +6560,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6610,10 +6589,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6639,10 +6618,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6668,10 +6647,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6697,10 +6676,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>15</v>
@@ -6755,10 +6734,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6784,10 +6763,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6813,10 +6792,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6842,10 +6821,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6871,10 +6850,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6900,10 +6879,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6929,10 +6908,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6958,10 +6937,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6987,10 +6966,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7016,10 +6995,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7045,10 +7024,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7074,10 +7053,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -7103,10 +7082,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>8</v>
@@ -7132,10 +7111,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -7161,10 +7140,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7190,10 +7169,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>8</v>
@@ -7219,10 +7198,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7248,10 +7227,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7277,10 +7256,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7306,10 +7285,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7335,10 +7314,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7364,10 +7343,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7393,10 +7372,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7422,10 +7401,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7451,10 +7430,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7480,10 +7459,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7509,10 +7488,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7538,10 +7517,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7567,10 +7546,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7596,10 +7575,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7625,10 +7604,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7654,10 +7633,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7683,10 +7662,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7712,10 +7691,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7741,10 +7720,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7770,10 +7749,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7799,10 +7778,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7828,10 +7807,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7857,10 +7836,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7886,10 +7865,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7915,10 +7894,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7944,10 +7923,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7973,10 +7952,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8002,10 +7981,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8031,10 +8010,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8060,10 +8039,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8089,10 +8068,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8118,10 +8097,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8147,10 +8126,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8176,10 +8155,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8205,10 +8184,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8234,10 +8213,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8263,10 +8242,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8292,10 +8271,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8321,10 +8300,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8350,10 +8329,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8379,10 +8358,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8408,10 +8387,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8437,10 +8416,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8466,10 +8445,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8495,10 +8474,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8524,10 +8503,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8553,10 +8532,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8582,10 +8561,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8611,10 +8590,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8640,10 +8619,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8669,10 +8648,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8698,10 +8677,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8727,10 +8706,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8756,10 +8735,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8785,10 +8764,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8814,10 +8793,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8843,10 +8822,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8872,10 +8851,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8901,10 +8880,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8930,10 +8909,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8959,10 +8938,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8988,10 +8967,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9017,10 +8996,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9046,10 +9025,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9075,10 +9054,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9104,10 +9083,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9133,10 +9112,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9162,10 +9141,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9191,10 +9170,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9220,10 +9199,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9249,10 +9228,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9278,10 +9257,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9307,10 +9286,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9336,10 +9315,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9365,10 +9344,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9394,10 +9373,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9423,10 +9402,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9452,10 +9431,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9481,10 +9460,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9510,10 +9489,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9539,10 +9518,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9568,10 +9547,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9597,10 +9576,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9626,10 +9605,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9655,10 +9634,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9684,10 +9663,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9713,10 +9692,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9742,10 +9721,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9771,10 +9750,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9800,10 +9779,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9829,10 +9808,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9858,10 +9837,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9887,10 +9866,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9916,10 +9895,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9945,10 +9924,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9974,10 +9953,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10003,10 +9982,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10032,10 +10011,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10061,10 +10040,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10090,10 +10069,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10119,10 +10098,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10148,10 +10127,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10177,10 +10156,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10206,10 +10185,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F272" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10235,10 +10214,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10264,10 +10243,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10293,10 +10272,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10322,10 +10301,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10351,10 +10330,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10380,10 +10359,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10409,10 +10388,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10438,10 +10417,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10467,10 +10446,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10496,10 +10475,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10525,10 +10504,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10554,10 +10533,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10583,10 +10562,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10612,10 +10591,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10641,10 +10620,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10670,10 +10649,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10699,10 +10678,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10728,10 +10707,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10757,10 +10736,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10786,10 +10765,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10815,10 +10794,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10844,10 +10823,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10873,10 +10852,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10902,10 +10881,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10931,10 +10910,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10960,10 +10939,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10989,10 +10968,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11018,10 +10997,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11047,10 +11026,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11076,10 +11055,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11105,10 +11084,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11134,10 +11113,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F304" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11163,10 +11142,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11192,10 +11171,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F306" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11221,10 +11200,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11250,10 +11229,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11279,10 +11258,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11308,10 +11287,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11337,10 +11316,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11366,10 +11345,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11395,10 +11374,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11424,10 +11403,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11453,10 +11432,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11482,10 +11461,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11511,10 +11490,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>3</v>
@@ -11540,10 +11519,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F318" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11569,10 +11548,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11598,10 +11577,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11627,10 +11606,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11656,10 +11635,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11685,10 +11664,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11714,10 +11693,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>237</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11743,10 +11722,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11772,10 +11751,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F326" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11801,10 +11780,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11830,10 +11809,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11859,10 +11838,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11888,10 +11867,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11917,10 +11896,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11946,10 +11925,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -11975,10 +11954,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12004,10 +11983,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12033,10 +12012,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12062,10 +12041,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12091,10 +12070,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12120,10 +12099,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12149,10 +12128,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>

--- a/xlsx/海地_intext.xlsx
+++ b/xlsx/海地_intext.xlsx
@@ -29,7 +29,7 @@
     <t>海地國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_海地</t>
+    <t>体育运动_体育运动_伊朗_海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9B%BD%E5%BE%BD</t>
